--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bingerso/GitHub-Projects/csc505-hw3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5285B158-2E96-1F49-B6BC-FE00F5E255F4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D4ED1E-236C-234C-9AC2-7D9EA667734B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="22660" xr2:uid="{F82D4719-C5B4-F049-995F-DDAC1FCB4940}"/>
   </bookViews>
@@ -1575,7 +1575,7 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
